--- a/plans/Planeptune Focus Tree.xlsx
+++ b/plans/Planeptune Focus Tree.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932B462D-315B-4A95-A22A-BF19C6668262}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,36 +14,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{AFFE8E2D-FC97-4E87-86BC-D57B5BC14E8D}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Some of these quests are shorter than average</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{7326BD63-D883-45CB-BF2F-EA228BD5B11B}">
+    <comment ref="M3" authorId="0">
       <text>
         <r>
           <rPr>
@@ -68,55 +43,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="0" shapeId="0" xr:uid="{D96EE68F-79D8-49BB-9A62-6E82443FF99B}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Machine Cult of Erethisan</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="U6" authorId="0" shapeId="0" xr:uid="{F90AA4BE-6E82-474B-B934-9769FEBE7D36}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Author:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-Can undertake one extra mission</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{47F034C1-7B16-4291-9F3E-07F8746264F9}">
+    <comment ref="N8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Land of the Purple Progress</t>
   </si>
@@ -202,78 +129,12 @@
   </si>
   <si>
     <t>Ban Contraceptives</t>
-  </si>
-  <si>
-    <t>Assess the Territories</t>
-  </si>
-  <si>
-    <t>Sovereignty Solidified</t>
-  </si>
-  <si>
-    <t>The Barbarians in Deulin</t>
-  </si>
-  <si>
-    <t>The Tribals in Hellfire Hollow</t>
-  </si>
-  <si>
-    <t>The Cultists in Erethisan</t>
-  </si>
-  <si>
-    <t>The Dogoos in Virtua</t>
-  </si>
-  <si>
-    <t>The Moguls in the Resort</t>
-  </si>
-  <si>
-    <t>The Carrot</t>
-  </si>
-  <si>
-    <t>The Stick</t>
-  </si>
-  <si>
-    <t>Mobilize the Police</t>
-  </si>
-  <si>
-    <t>The Power of the Tank</t>
-  </si>
-  <si>
-    <t>Hire Diplomats</t>
-  </si>
-  <si>
-    <t>Map Out the Clans</t>
-  </si>
-  <si>
-    <t>Invest in Magma-Proof Armor</t>
-  </si>
-  <si>
-    <t>Open Negotiation Talks</t>
-  </si>
-  <si>
-    <t>Hasten Their Integration</t>
-  </si>
-  <si>
-    <t>Nerding Out with Nepgear</t>
-  </si>
-  <si>
-    <t>Develop a Form of Communication</t>
-  </si>
-  <si>
-    <t>A Bundle of Sticks</t>
-  </si>
-  <si>
-    <t>A Heap of Carrots</t>
-  </si>
-  <si>
-    <t>Involvement in Clan Warfare</t>
-  </si>
-  <si>
-    <t>Rig the Economics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +162,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,24 +187,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -358,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -366,34 +209,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -451,7 +285,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,26 +318,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,23 +353,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -728,139 +528,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:AG12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="7.1796875" style="1"/>
+    <col min="1" max="16384" width="7.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M1" s="3" t="s">
+    <row r="1" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M2" s="3" t="s">
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="V2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="3"/>
-    </row>
-    <row r="3" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M3" s="3" t="s">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="R3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="W3" s="8"/>
-      <c r="X3" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA3" s="8"/>
-    </row>
-    <row r="4" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="L4" s="5" t="s">
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5" t="s">
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="5"/>
-      <c r="U4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="X4" s="3"/>
-    </row>
-    <row r="5" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="M5" s="3" t="s">
+      <c r="O4" s="6"/>
+    </row>
+    <row r="5" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="R5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA5" s="10"/>
-    </row>
-    <row r="6" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J6" s="5" t="s">
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5" t="s">
+      <c r="K6" s="6"/>
+      <c r="L6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="5"/>
-      <c r="N6" s="6" t="s">
+      <c r="M6" s="6"/>
+      <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6" t="s">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q6" s="6"/>
-      <c r="S6" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z6" s="9"/>
-    </row>
-    <row r="7" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -879,20 +611,6 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="W7" s="4"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
-      <c r="Z7" s="4"/>
-      <c r="AA7" s="4"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
@@ -900,7 +618,7 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -909,30 +627,16 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5" t="s">
+      <c r="M8" s="6"/>
+      <c r="N8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="5"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -940,7 +644,7 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -948,27 +652,17 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="6"/>
+      <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="4"/>
-      <c r="V9" s="4"/>
-      <c r="W9" s="4"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
@@ -976,7 +670,7 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -985,26 +679,16 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5" t="s">
+      <c r="M10" s="6"/>
+      <c r="N10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="5"/>
+      <c r="O10" s="6"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="4"/>
-      <c r="W10" s="4"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -1012,7 +696,7 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1029,16 +713,6 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="V11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W11" s="4"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
@@ -1046,7 +720,7 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1079,38 +753,18 @@
       <c r="AG12" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="47">
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="W9:X9"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="Z3:AA3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="Y6:Z6"/>
+  <mergeCells count="19">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="M11:N11"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="R5:S5"/>
     <mergeCell ref="K7:L7"/>
     <mergeCell ref="O7:P7"/>
     <mergeCell ref="L8:M8"/>
@@ -1119,14 +773,6 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/plans/Planeptune Focus Tree.xlsx
+++ b/plans/Planeptune Focus Tree.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36011D02-5C10-46B0-886A-0B9C7B2E241E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="M3" authorId="0">
+    <comment ref="M3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N8" authorId="0">
+    <comment ref="N8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>Land of the Purple Progress</t>
   </si>
@@ -129,12 +130,81 @@
   </si>
   <si>
     <t>Ban Contraceptives</t>
+  </si>
+  <si>
+    <t>Role of the Oracle</t>
+  </si>
+  <si>
+    <t>Waking Up the Public</t>
+  </si>
+  <si>
+    <t>I Can't Believe It's Not Bribery</t>
+  </si>
+  <si>
+    <t>Doing It The Hard Way</t>
+  </si>
+  <si>
+    <t>Direct Flattery</t>
+  </si>
+  <si>
+    <t>We Serve the People</t>
+  </si>
+  <si>
+    <t>We Serve Planeptune</t>
+  </si>
+  <si>
+    <t>Time for Change</t>
+  </si>
+  <si>
+    <t>Planeptune Tamed</t>
+  </si>
+  <si>
+    <t>Promises of Peace</t>
+  </si>
+  <si>
+    <t>We Will Win</t>
+  </si>
+  <si>
+    <t>Histy the Orator</t>
+  </si>
+  <si>
+    <t>Demilitarize the Factories</t>
+  </si>
+  <si>
+    <t>Political Power / Stability / War Support Tree</t>
+  </si>
+  <si>
+    <t>The Purple Sun Rises</t>
+  </si>
+  <si>
+    <t>PLACEHOLDER</t>
+  </si>
+  <si>
+    <t>Pinky Promise</t>
+  </si>
+  <si>
+    <t>Who's In Charge?</t>
+  </si>
+  <si>
+    <t>PLACEHOLDER WAR SUPPORT</t>
+  </si>
+  <si>
+    <t>PLACEHOLDER STABILITY</t>
+  </si>
+  <si>
+    <t>PLACEHOLDER NO UNREST</t>
+  </si>
+  <si>
+    <t>PLACEHOLDER UNREST HISTY</t>
+  </si>
+  <si>
+    <t>PLACEHOLDER UNREST POPULATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -212,13 +282,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -227,7 +297,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -285,7 +355,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -318,9 +388,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -353,6 +440,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,61 +632,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="D1:AG12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="D1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+    <sheetView tabSelected="1" topLeftCell="N9" workbookViewId="0">
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.140625" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.1796875" defaultRowHeight="75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="7.140625" style="1"/>
+    <col min="1" max="16384" width="7.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5"/>
     </row>
-    <row r="2" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="N2" s="5"/>
-    </row>
-    <row r="3" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="Y2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z2" s="5"/>
+      <c r="AD2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="5"/>
+    </row>
+    <row r="3" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="N3" s="5"/>
-    </row>
-    <row r="4" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L4" s="6" t="s">
+      <c r="V3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y3" s="5"/>
+      <c r="AD3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE3" s="5"/>
+    </row>
+    <row r="4" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="O4" s="6"/>
-    </row>
-    <row r="5" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O4" s="4"/>
+      <c r="U4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="5"/>
+      <c r="Y4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z4" s="5"/>
+    </row>
+    <row r="5" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="M5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="N5" s="5"/>
-    </row>
-    <row r="6" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="J6" s="6" t="s">
+      <c r="V5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="3"/>
+      <c r="AC5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF5" s="4"/>
+    </row>
+    <row r="6" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="6"/>
+      <c r="M6" s="4"/>
       <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
@@ -591,8 +743,16 @@
         <v>18</v>
       </c>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="5"/>
+      <c r="Y6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z6" s="5"/>
+    </row>
+    <row r="7" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -611,14 +771,34 @@
       </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="2"/>
+      <c r="T7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U7" s="3"/>
+      <c r="V7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W7" s="3"/>
+      <c r="X7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA7" s="4"/>
       <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AD7" s="2"/>
-      <c r="AE7" s="2"/>
-      <c r="AF7" s="2"/>
+      <c r="AC7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD7" s="3"/>
+      <c r="AE7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF7" s="3"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -627,16 +807,24 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="6"/>
+      <c r="O8" s="4"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
+      <c r="U8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="5"/>
+      <c r="Y8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z8" s="5"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
@@ -644,7 +832,7 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -663,14 +851,22 @@
       </c>
       <c r="P9" s="3"/>
       <c r="Q9" s="2"/>
+      <c r="W9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="X9" s="5"/>
       <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
+      <c r="AC9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AD9" s="3"/>
+      <c r="AE9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AF9" s="3"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -679,16 +875,24 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6" t="s">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="6"/>
+      <c r="O10" s="4"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
+      <c r="U10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="5"/>
+      <c r="Y10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z10" s="5"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
@@ -696,7 +900,7 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -706,21 +910,27 @@
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
-      <c r="M11" s="4" t="s">
+      <c r="M11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="6"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
+      <c r="W11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="X11" s="5"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AD11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE11" s="6"/>
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -752,16 +962,44 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
     </row>
+    <row r="13" spans="4:33" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="W13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="X13" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
+  <mergeCells count="49">
+    <mergeCell ref="AD2:AE2"/>
+    <mergeCell ref="W13:X13"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AD11:AE11"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="W9:X9"/>
+    <mergeCell ref="W11:X11"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="U2:V2"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="X3:Y3"/>
     <mergeCell ref="L10:M10"/>
     <mergeCell ref="N10:O10"/>
     <mergeCell ref="M11:N11"/>
@@ -771,6 +1009,14 @@
     <mergeCell ref="N8:O8"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="K9:L9"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
     <mergeCell ref="M5:N5"/>
     <mergeCell ref="L6:M6"/>
   </mergeCells>
